--- a/ExcelConfig/Terrains.xlsx
+++ b/ExcelConfig/Terrains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABA29B8-8C4A-448B-9F23-6208F9380EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC8B6E-C74E-46B3-9EEF-2BD1A4D1DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="terrains" sheetId="1" r:id="rId1"/>
@@ -104,15 +104,15 @@
     <t>material</t>
   </si>
   <si>
-    <t>Floors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>diameter</t>
+  </si>
+  <si>
+    <t>Terrains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
             <v>1</v>
           </cell>
           <cell r="C2">
-            <v>1000</v>
+            <v>999</v>
           </cell>
           <cell r="D2">
             <v>1000</v>
@@ -332,10 +332,10 @@
             <v>Roofs</v>
           </cell>
           <cell r="B3">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="C3">
-            <v>2000</v>
+            <v>1999</v>
           </cell>
           <cell r="D3">
             <v>1000</v>
@@ -346,10 +346,10 @@
             <v>Walls</v>
           </cell>
           <cell r="B4">
-            <v>2001</v>
+            <v>2000</v>
           </cell>
           <cell r="C4">
-            <v>3000</v>
+            <v>2999</v>
           </cell>
           <cell r="D4">
             <v>1000</v>
@@ -360,10 +360,10 @@
             <v>Rings</v>
           </cell>
           <cell r="B5">
-            <v>3001</v>
+            <v>3000</v>
           </cell>
           <cell r="C5">
-            <v>4000</v>
+            <v>3999</v>
           </cell>
           <cell r="D5">
             <v>1000</v>
@@ -374,10 +374,10 @@
             <v>Floors</v>
           </cell>
           <cell r="B6">
-            <v>4001</v>
+            <v>4000</v>
           </cell>
           <cell r="C6">
-            <v>5000</v>
+            <v>4999</v>
           </cell>
           <cell r="D6">
             <v>1000</v>
@@ -388,10 +388,10 @@
             <v>Terrains</v>
           </cell>
           <cell r="B7">
-            <v>5001</v>
+            <v>5000</v>
           </cell>
           <cell r="C7">
-            <v>6000</v>
+            <v>5999</v>
           </cell>
           <cell r="D7">
             <v>1000</v>
@@ -402,13 +402,27 @@
             <v>Spheres</v>
           </cell>
           <cell r="B8">
-            <v>6001</v>
+            <v>6000</v>
           </cell>
           <cell r="C8">
-            <v>7000</v>
+            <v>6999</v>
           </cell>
           <cell r="D8">
             <v>1000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="B9">
+            <v>10001</v>
+          </cell>
+          <cell r="C9">
+            <v>20000</v>
+          </cell>
+          <cell r="D9">
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
@@ -704,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +746,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>_help!B2+ROW()-3</f>
-        <v>4001</v>
+        <v>5000</v>
       </c>
       <c r="B3" s="2">
         <v>1001</v>
@@ -773,18 +787,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A308E656-14E9-43C2-8C70-D681FEE50DD2}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -871,15 +885,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,2,FALSE)</f>
-        <v>4001</v>
+        <v>5000</v>
       </c>
       <c r="C2">
         <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,3,FALSE)</f>
-        <v>5000</v>
+        <v>5999</v>
       </c>
     </row>
   </sheetData>
